--- a/data_demo/run_parameters_demo.xlsx
+++ b/data_demo/run_parameters_demo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\MATLAB\shadowtracking\demo data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\MATLAB\shadowtracking\data_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EAF1C4-D39D-4319-8727-7A8F6930497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7E60AD-FB31-439E-9E51-7A08E1B0A4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7995" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3165" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -67,37 +67,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{CBAB4185-0501-41A4-83BF-B29A8F5A2AC6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Particle diameter [m]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{A98DB43C-79CF-4835-9C76-722884E6595E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Frequency setting of WASIRF water current pump [Hz]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{2F138665-83B8-490B-A126-1B7B290C3BCF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Frequency setting of WASIRF wind motor [Hz]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{AB48F994-0871-4386-8673-D3A6926F38DC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>wind speed [m/s]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{9785CA16-5F31-437D-8DB9-32795CBA650C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>water depth [m]</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">fetch (distance from wavemaker) of upstream end of ROI </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">fetch (distance from wavemaker) of downstream end of ROI </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{F58FC180-54B9-48FE-B9C0-7295C9E990D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>particle rise velocity [m/s]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>upstream ROI fetch</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+          <t>acquisition frequency of images (if not pulsed) or image bursts (if pulsed)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>downstream ROI fetch</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+          <t>interval between images in a burst (if pulsed)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{38BD026C-D9A2-406B-875F-0B851DE7A991}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camera exposure time [μs]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{9F36BB9E-9F46-4B68-AE91-99483B50FE32}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>lens focal length</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{6CF621BD-5B4B-4ABD-BE2E-755D7823224E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camera aperture (f number/f-stop)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{D457018B-A246-47BF-9B57-98C7808CFF55}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LED power level (Amps)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{A58BEE9F-309D-412D-A95A-570F70F54344}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>water temperature [deg C]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -107,11 +274,89 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>acquisition frequency of images (if not pulsed) or image bursts (if pulsed)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+          <t>adaptive binarization sensitivity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{D1B75178-A586-46F9-A261-96DFDC1CE27C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>lower area threshold for detected particles [px^2]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{66447F98-CFFC-49C9-9936-C8EE7D9C97E4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>upper area threshold for detected particles [px^2]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{95E3EFF9-6815-404D-A958-5C875F7B7CAF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>lower length threshold for detected particles' major axis [px]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{413E3972-934F-4287-BEE2-06BAE19E00A3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>upper length threshold for detected particles' major axis [px]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="1" shapeId="0" xr:uid="{08EA70CB-28EA-4A75-855B-4D8E2B63A9C5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>lower length threshold for detected particles' minor axis [px]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="1" shapeId="0" xr:uid="{F296DD08-048C-4212-BEB3-4B3A8C316294}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>upper length threshold for detected particles' minor axis [px]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -121,35 +366,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>interval between images in a burst (if pulsed)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>adaptive binarization sensitivity</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>offset in px of actual captured FOV w.r.t. calibration/bkgd FOV (if camera shifts during expt)</t>
+          <t>Z-AG: 
+offsets between actual imaged field of view (FOV) and calibration/bkgd FOV (if camera shifts during expt) [px]</t>
         </r>
       </text>
     </comment>
@@ -162,7 +380,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>scaled offset (del_dr or del_lr)</t>
+          <t>scaled offset to particle axis lengths (del_dr or del_lr)</t>
         </r>
       </text>
     </comment>
@@ -175,7 +393,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>multiplication factor for constant offset value (K*del_dr0 or K*del_lr0)</t>
+          <t>multiplication factor for offset value (K*del_dr0 or K*del_lr0)</t>
         </r>
       </text>
     </comment>
@@ -359,14 +577,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -377,6 +587,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -470,7 +686,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,6 +772,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -857,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/data_demo/run_parameters_demo.xlsx
+++ b/data_demo/run_parameters_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\MATLAB\shadowtracking\data_demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljbak\My Drive\MATLAB\shadowtracking\data_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7E60AD-FB31-439E-9E51-7A08E1B0A4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC16C436-1AC2-47B9-A6D7-C30046035729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3165" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -397,12 +397,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ1" authorId="1" shapeId="0" xr:uid="{65604703-B743-4C88-B562-FFB25F7C6452}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>search radius for nearest-neighbor tracking [m] - max distance a particle might move from one frame to the next</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Run</t>
   </si>
@@ -422,14 +435,103 @@
     <t>Wind motor freq_Hz</t>
   </si>
   <si>
+    <t>Water depth_m</t>
+  </si>
+  <si>
+    <t>ROI_x1_m</t>
+  </si>
+  <si>
+    <t>ROI_x2_m</t>
+  </si>
+  <si>
+    <t>rise vel_m_s</t>
+  </si>
+  <si>
+    <t>imaging freq_Hz</t>
+  </si>
+  <si>
+    <t>interval_us</t>
+  </si>
+  <si>
+    <t>exposure_us</t>
+  </si>
+  <si>
+    <t>lens _mm</t>
+  </si>
+  <si>
+    <t>fstop</t>
+  </si>
+  <si>
+    <t>LED current_A</t>
+  </si>
+  <si>
+    <t>ad bin sensitivity</t>
+  </si>
+  <si>
+    <t>area threshold 1_px</t>
+  </si>
+  <si>
+    <t>area threshold 2_px</t>
+  </si>
+  <si>
+    <t>maj ax thres1</t>
+  </si>
+  <si>
+    <t>maj ax thres2</t>
+  </si>
+  <si>
+    <t>min ax thres1</t>
+  </si>
+  <si>
+    <t>min ax thres2</t>
+  </si>
+  <si>
+    <t>camA_offset_x</t>
+  </si>
+  <si>
+    <t>camA_offset_y</t>
+  </si>
+  <si>
+    <t>camC_offset_x</t>
+  </si>
+  <si>
+    <t>camC_offset_y</t>
+  </si>
+  <si>
+    <t>camB_offset_x</t>
+  </si>
+  <si>
+    <t>camB_offset_y</t>
+  </si>
+  <si>
+    <t>camD_offset_x</t>
+  </si>
+  <si>
+    <t>camD_offset_y</t>
+  </si>
+  <si>
+    <t>water temp C</t>
+  </si>
+  <si>
+    <t>r20</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>n4</t>
+  </si>
+  <si>
+    <t>search radius_m</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
       <t>W</t>
     </r>
     <r>
@@ -437,129 +539,22 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Liberation Sans1"/>
-        <charset val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t>ind speed_m/s</t>
+      <t>ind speed_m_s</t>
     </r>
-  </si>
-  <si>
-    <t>Water depth_m</t>
-  </si>
-  <si>
-    <t>ROI_x1_m</t>
-  </si>
-  <si>
-    <t>ROI_x2_m</t>
-  </si>
-  <si>
-    <t>rise vel_m_s</t>
-  </si>
-  <si>
-    <t>imaging freq_Hz</t>
-  </si>
-  <si>
-    <t>interval_us</t>
-  </si>
-  <si>
-    <t>exposure_us</t>
-  </si>
-  <si>
-    <t>lens _mm</t>
-  </si>
-  <si>
-    <t>fstop</t>
-  </si>
-  <si>
-    <t>LED current_A</t>
-  </si>
-  <si>
-    <t>ad bin sensitivity</t>
-  </si>
-  <si>
-    <t>area threshold 1_px</t>
-  </si>
-  <si>
-    <t>area threshold 2_px</t>
-  </si>
-  <si>
-    <t>maj ax thres1</t>
-  </si>
-  <si>
-    <t>maj ax thres2</t>
-  </si>
-  <si>
-    <t>min ax thres1</t>
-  </si>
-  <si>
-    <t>min ax thres2</t>
-  </si>
-  <si>
-    <t>camA_offset_x</t>
-  </si>
-  <si>
-    <t>camA_offset_y</t>
-  </si>
-  <si>
-    <t>camC_offset_x</t>
-  </si>
-  <si>
-    <t>camC_offset_y</t>
-  </si>
-  <si>
-    <t>camB_offset_x</t>
-  </si>
-  <si>
-    <t>camB_offset_y</t>
-  </si>
-  <si>
-    <t>camD_offset_x</t>
-  </si>
-  <si>
-    <t>camD_offset_y</t>
-  </si>
-  <si>
-    <t>water temp C</t>
-  </si>
-  <si>
-    <t>r20</t>
-  </si>
-  <si>
-    <t>d7</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>n4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Liberation Sans1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
@@ -595,8 +590,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +641,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -655,40 +675,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +797,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,439 +1096,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="19" max="21" width="12.5703125" customWidth="1"/>
-    <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" customWidth="1"/>
-    <col min="28" max="30" width="7.28515625" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="32" width="7.28515625" customWidth="1"/>
-    <col min="33" max="33" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="19" max="21" width="12.5546875" customWidth="1"/>
+    <col min="22" max="25" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" customWidth="1"/>
+    <col min="28" max="30" width="7.33203125" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" customWidth="1"/>
+    <col min="32" max="32" width="7.88671875" customWidth="1"/>
+    <col min="33" max="33" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="6" customFormat="1" ht="45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:36" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44725</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>44725</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="D2" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
         <v>60</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="10">
         <v>16</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="10">
         <v>0.6</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="10">
         <v>6.6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="10">
         <v>7.6</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <f>0.0375</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="10">
         <v>30</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10">
         <v>7000</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="10">
         <v>35</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="10">
         <v>1</v>
       </c>
       <c r="R2" s="12"/>
-      <c r="S2" s="10">
+      <c r="S2" s="13">
         <v>0.59</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="13">
         <v>500</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="13">
         <v>3500</v>
       </c>
-      <c r="V2" s="10">
-        <v>0</v>
-      </c>
-      <c r="W2" s="10">
+      <c r="V2" s="13">
+        <v>0</v>
+      </c>
+      <c r="W2" s="13">
         <v>60</v>
       </c>
-      <c r="X2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="10">
+      <c r="X2" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="13">
         <v>60</v>
       </c>
-      <c r="Z2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
+      <c r="Z2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="16">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="7">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>44725</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="11">
         <v>0.02</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
         <v>60</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="10">
         <v>16</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="10">
         <v>0.6</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="10">
         <v>6.6</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="10">
         <v>7.6</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <f>0.022</f>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="10">
         <v>30</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10">
         <v>7000</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="10">
         <v>35</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="10">
         <v>1</v>
       </c>
       <c r="R3" s="12"/>
-      <c r="S3" s="10">
+      <c r="S3" s="13">
         <v>0.59</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="13">
         <v>300</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="13">
         <v>24000</v>
       </c>
-      <c r="V3" s="10">
-        <v>0</v>
-      </c>
-      <c r="W3" s="10">
+      <c r="V3" s="13">
+        <v>0</v>
+      </c>
+      <c r="W3" s="13">
         <v>500</v>
       </c>
-      <c r="X3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="10">
+      <c r="X3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="13">
         <v>60</v>
       </c>
-      <c r="Z3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="14">
+      <c r="Z3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="15">
         <v>1</v>
       </c>
+      <c r="AJ3" s="16">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="7">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>44726</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
         <v>60</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="10">
         <v>16</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="10">
         <v>0.6</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="10">
         <v>6.6</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="10">
         <v>7.6</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <f>0.0195</f>
         <v>1.95E-2</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="10">
         <v>30</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7">
+      <c r="M4" s="10"/>
+      <c r="N4" s="10">
         <v>7000</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="10">
         <v>35</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="10">
         <v>1</v>
       </c>
       <c r="R4" s="12"/>
-      <c r="S4" s="10">
+      <c r="S4" s="13">
         <v>0.59</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="13">
         <v>500</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="13">
         <v>10000</v>
       </c>
-      <c r="V4" s="10">
-        <v>0</v>
-      </c>
-      <c r="W4" s="10">
+      <c r="V4" s="13">
+        <v>0</v>
+      </c>
+      <c r="W4" s="13">
         <v>200</v>
       </c>
-      <c r="X4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="10">
+      <c r="X4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="13">
         <v>200</v>
       </c>
-      <c r="Z4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="14">
+      <c r="Z4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="15">
         <v>0.8</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
